--- a/experiment_data.xlsx
+++ b/experiment_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Matlab_Workspace\tom_NewStory\modelling\CognPsychol_OnlineMaterials\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Matlab_Workspace\tom_NewStory\modelling\CognPsychol_OnlineMaterials\experiment_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0075D085-D748-4B74-9C5C-BD54CF741023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB3D0E2-7E94-4E15-B52E-698177366577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13728" yWindow="2040" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -384,8 +384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -572,7 +572,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" s="1">
         <v>0.64583333333333304</v>
@@ -583,7 +583,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" s="1">
         <v>0.8125</v>
@@ -594,7 +594,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" s="1">
         <v>0.58333333333333304</v>
@@ -605,7 +605,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" s="1">
         <v>0.60416666666666696</v>
@@ -616,7 +616,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" s="1">
         <v>0.54166666666666696</v>
@@ -627,7 +627,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" s="1">
         <v>0.79166666666666696</v>
@@ -638,7 +638,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" s="1">
         <v>0.8125</v>
@@ -649,7 +649,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" s="1">
         <v>0.83333333333333304</v>
@@ -660,7 +660,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" s="1">
         <v>0.64583333333333304</v>
@@ -671,7 +671,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" s="1">
         <v>0.77083333333333304</v>
@@ -682,7 +682,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" s="1">
         <v>0.52083333333333304</v>
@@ -693,7 +693,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" s="1">
         <v>0.47916666666666702</v>
@@ -704,7 +704,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" s="1">
         <v>0.83333333333333304</v>
@@ -715,7 +715,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" s="1">
         <v>0.625</v>
